--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1655.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1655.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.687012640316214</v>
+        <v>3.250615119934082</v>
       </c>
       <c r="B1">
-        <v>3.423894319929369</v>
+        <v>2.710794448852539</v>
       </c>
       <c r="C1">
-        <v>2.900703474692238</v>
+        <v>2.446203708648682</v>
       </c>
       <c r="D1">
-        <v>2.26717001490333</v>
+        <v>2.731816530227661</v>
       </c>
       <c r="E1">
-        <v>1.32305326491022</v>
+        <v>3.199106693267822</v>
       </c>
     </row>
   </sheetData>
